--- a/Service.Data/_Template/Excel/Template_BaoGiaCoBan.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaCoBan.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t xml:space="preserve">CÔNG TY CỔ PHẦN ĐỊA ỐC KIM QUANG
 </t>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>HireManagermentFee</t>
+  </si>
+  <si>
+    <t>HireTotalAmount</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>RowIndex</t>
   </si>
 </sst>
 </file>
@@ -1412,12 +1424,52 @@
     <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="15" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1436,48 +1488,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="204">
@@ -2326,13 +2338,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
@@ -2362,14 +2374,14 @@
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
       <c r="J2" s="5"/>
       <c r="K2" s="3"/>
       <c r="L2" s="6"/>
@@ -2378,13 +2390,13 @@
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="7"/>
       <c r="J3" s="5"/>
       <c r="K3" s="3"/>
@@ -2398,13 +2410,13 @@
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="7"/>
       <c r="J4" s="5"/>
       <c r="K4" s="3"/>
@@ -2418,13 +2430,13 @@
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="7"/>
       <c r="J5" s="5"/>
       <c r="K5" s="3"/>
@@ -2478,16 +2490,16 @@
       <c r="M8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -2496,11 +2508,11 @@
     <row r="10" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B10" s="66"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="18"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -2508,62 +2520,62 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="102" t="s">
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="102" t="s">
+      <c r="L12" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="103" t="s">
+      <c r="M12" s="83" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="19" t="s">
         <v>19</v>
       </c>
@@ -2573,15 +2585,17 @@
       <c r="J13" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="103"/>
-    </row>
-    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
+    </row>
+    <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="76" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="76" t="s">
         <v>43</v>
       </c>
@@ -2594,12 +2608,18 @@
       <c r="F14" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="74" t="s">
+        <v>53</v>
+      </c>
       <c r="H14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
+      <c r="I14" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="74" t="s">
+        <v>52</v>
+      </c>
       <c r="K14" s="76" t="s">
         <v>48</v>
       </c>
@@ -2743,8 +2763,8 @@
       <c r="H22" s="42"/>
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
       <c r="M22" s="41"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2758,9 +2778,9 @@
       <c r="G23" s="41"/>
       <c r="H23" s="42"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="41"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2825,50 +2845,50 @@
     </row>
     <row r="28" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
     </row>
     <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="60"/>
       <c r="I29" s="59"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="17"/>
       <c r="I30" s="16"/>
       <c r="J30" s="61"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
       <c r="M30" s="61"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2899,8 +2919,8 @@
       <c r="H32" s="17"/>
       <c r="I32" s="16"/>
       <c r="J32" s="62"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
       <c r="M32" s="62"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2915,8 +2935,8 @@
       <c r="H33" s="17"/>
       <c r="I33" s="16"/>
       <c r="J33" s="62"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
       <c r="M33" s="62"/>
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2949,129 +2969,129 @@
     </row>
     <row r="36" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="29">

--- a/Service.Data/_Template/Excel/Template_BaoGiaCoBan.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaCoBan.xlsx
@@ -260,21 +260,22 @@
     <t>HireTotalAmount</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>RowIndex</t>
+  </si>
+  <si>
+    <t>AvailableFrom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="59" x14ac:knownFonts="1">
     <font>
@@ -1240,7 +1241,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1424,15 +1425,45 @@
     <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1461,35 +1492,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="204">
@@ -2338,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,14 +2378,14 @@
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="5"/>
       <c r="K2" s="3"/>
       <c r="L2" s="6"/>
@@ -2390,13 +2394,13 @@
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="7"/>
       <c r="J3" s="5"/>
       <c r="K3" s="3"/>
@@ -2410,13 +2414,13 @@
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
       <c r="I4" s="7"/>
       <c r="J4" s="5"/>
       <c r="K4" s="3"/>
@@ -2430,13 +2434,13 @@
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="102"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="7"/>
       <c r="J5" s="5"/>
       <c r="K5" s="3"/>
@@ -2490,16 +2494,16 @@
       <c r="M8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -2508,11 +2512,11 @@
     <row r="10" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B10" s="66"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="18"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -2520,62 +2524,62 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="82" t="s">
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="82" t="s">
+      <c r="L12" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="83" t="s">
+      <c r="M12" s="91" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="19" t="s">
         <v>19</v>
       </c>
@@ -2585,16 +2589,16 @@
       <c r="J13" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="76" t="s">
         <v>43</v>
@@ -2609,7 +2613,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>47</v>
@@ -2641,7 +2645,7 @@
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="68"/>
       <c r="I15" s="22"/>
       <c r="J15" s="23"/>
@@ -2763,8 +2767,8 @@
       <c r="H22" s="42"/>
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
       <c r="M22" s="41"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2778,9 +2782,9 @@
       <c r="G23" s="41"/>
       <c r="H23" s="42"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="41"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2845,50 +2849,50 @@
     </row>
     <row r="28" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
     </row>
     <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
       <c r="H29" s="60"/>
       <c r="I29" s="59"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="17"/>
       <c r="I30" s="16"/>
       <c r="J30" s="61"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
       <c r="M30" s="61"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2919,8 +2923,8 @@
       <c r="H32" s="17"/>
       <c r="I32" s="16"/>
       <c r="J32" s="62"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
       <c r="M32" s="62"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2935,8 +2939,8 @@
       <c r="H33" s="17"/>
       <c r="I33" s="16"/>
       <c r="J33" s="62"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
       <c r="M33" s="62"/>
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2969,148 +2973,132 @@
     </row>
     <row r="36" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:K13"/>
     <mergeCell ref="C37:M44"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="M12:M13"/>
@@ -3124,8 +3112,25 @@
     <mergeCell ref="K32:L33"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="K36:L36"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Service.Data/_Template/Excel/Template_BaoGiaCoBan.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaCoBan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOP\OTHER\KimQuang\Source\Service.Data\_Template\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="11940"/>
   </bookViews>
@@ -27,7 +22,7 @@
     <definedName name="TTKHNCS">'[1]KH Ngừng Chăm sóc'!$C$7:$N$636</definedName>
     <definedName name="tttt">'[1]Thông tin chung'!$K$2:$K$3</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t xml:space="preserve">CÔNG TY CỔ PHẦN ĐỊA ỐC KIM QUANG
 </t>
@@ -48,9 +43,6 @@
   </si>
   <si>
     <t>Mã     :</t>
-  </si>
-  <si>
-    <t>TTT-01</t>
   </si>
   <si>
     <t xml:space="preserve">Website: chothuevanphonghcm.com
@@ -233,9 +225,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Struture</t>
-  </si>
-  <si>
     <t>AreaPerFloor</t>
   </si>
   <si>
@@ -264,20 +253,32 @@
   </si>
   <si>
     <t>AvailableFrom</t>
+  </si>
+  <si>
+    <t>{{ReportCode}}</t>
+  </si>
+  <si>
+    <t>{{ReportNumber}}</t>
+  </si>
+  <si>
+    <t>{{ReportDate}}</t>
+  </si>
+  <si>
+    <t>Structure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,7 +1242,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1425,6 +1426,12 @@
     <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1492,9 +1499,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="204">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -1719,7 +1723,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>922561</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
@@ -1799,13 +1803,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>13608</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1265463</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>96610</xdr:rowOff>
@@ -1863,7 +1867,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Thông tin chung"/>
@@ -1959,7 +1963,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TT CHUNG"/>
@@ -2339,795 +2343,795 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:13" ht="15.75">
+      <c r="A1" s="1"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="81" t="s">
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="3"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="L3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="86" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="6" t="s">
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="6">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="10">
-        <v>42310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
+      <c r="L5" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+    </row>
+    <row r="8" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="51"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="51"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="18"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="89" t="s">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="90" t="s">
+      <c r="K12" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="90" t="s">
+      <c r="L12" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="91" t="s">
+    </row>
+    <row r="13" spans="1:13" ht="76.5">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="74" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
-    </row>
-    <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
+    </row>
+    <row r="14" spans="1:13" ht="38.25">
+      <c r="A14" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="E14" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="F14" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="H14" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="K14" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="76" t="s">
+      <c r="L14" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="M14" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="20">
+    </row>
+    <row r="15" spans="1:13" ht="34.5" customHeight="1">
+      <c r="A15" s="20">
         <v>1</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
+      <c r="L15" s="21"/>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="15"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>24</v>
-      </c>
+      <c r="E18" s="36"/>
       <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-    </row>
-    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
+      <c r="A20" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="43"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
+      <c r="A21" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="43"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="48"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75">
+      <c r="A22" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="41"/>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="48"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="41"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75">
+      <c r="A23" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="41"/>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="41"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
+      <c r="A24" s="1"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="69" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
+      <c r="A25" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="70"/>
       <c r="C25" s="70"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
       <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" s="70"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="66"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="70"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="66"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
       <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-    </row>
-    <row r="28" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="96" t="s">
+    </row>
+    <row r="28" spans="1:12" ht="18.75">
+      <c r="A28" s="1"/>
+      <c r="B28" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.75">
+      <c r="A29" s="1"/>
+      <c r="B29" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75">
+      <c r="A30" s="1"/>
+      <c r="B30" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="61"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75">
+      <c r="A31" s="1"/>
+      <c r="B31" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-    </row>
-    <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-    </row>
-    <row r="30" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="61"/>
-    </row>
-    <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="79"/>
       <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="62"/>
       <c r="K31" s="62"/>
       <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-    </row>
-    <row r="32" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="77"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.75">
+      <c r="A32" s="1"/>
+      <c r="B32" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="79"/>
       <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="62"/>
-    </row>
-    <row r="33" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="77"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="62"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75">
+      <c r="A33" s="1"/>
+      <c r="B33" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="79"/>
       <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="62"/>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="62"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75">
+      <c r="A34" s="1"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="62"/>
       <c r="K34" s="62"/>
       <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-    </row>
-    <row r="35" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="75"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="62"/>
-    </row>
-    <row r="36" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="62"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75">
+      <c r="A36" s="1"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="16"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="93"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C37:M44"/>
+    <mergeCell ref="B37:L44"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Service.Data/_Template/Excel/Template_BaoGiaCoBan.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaCoBan.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="11940"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="BÁO GIÁ TIẾNG VIỆT" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BÁO GIÁ TIẾNG VIỆT'!$B$13:$L$16</definedName>
     <definedName name="DT">'[1]Thông tin chung'!$H$2:$H$7</definedName>
     <definedName name="NV">'[1]Thông tin chung'!$I$2:$I$8</definedName>
     <definedName name="Tân">'[2]TT CHUNG'!$I$2:$I$8</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t xml:space="preserve">CÔNG TY CỔ PHẦN ĐỊA ỐC KIM QUANG
 </t>
@@ -112,6 +113,27 @@
     <t xml:space="preserve">Phí 
 Quản Lý
 </t>
+  </si>
+  <si>
+    <t>Có sẵn</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>KBC Holding</t>
+  </si>
+  <si>
+    <t>1 Trệt + 8 Tầng</t>
+  </si>
+  <si>
+    <t>400 usd</t>
+  </si>
+  <si>
+    <t>400 usd/phòng</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
   <si>
     <t xml:space="preserve">ü </t>
@@ -195,66 +217,51 @@
 </t>
   </si>
   <si>
-    <t>Hiện trạng = thời gian trống trong file sản phẩm chi tiết</t>
-  </si>
-  <si>
-    <t>Chú Thích ="Giữ xe:"+Số chỗ xe máy+phí xe máy +"Ô tô:"+số chỗ ô tô +phí ô tô</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hướng dẫn: </t>
-  </si>
-  <si>
-    <t>Mã: thay đổi ngâu nhiên</t>
-  </si>
-  <si>
-    <t>Số: thay đổi theo thứ tự trong 1 năm</t>
-  </si>
-  <si>
-    <t>Ngày: cập nhật ngày gửi.</t>
+    <t>RowIndex</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>AreaPerFloor</t>
+  </si>
+  <si>
+    <t>AvailableArea</t>
+  </si>
+  <si>
+    <t>AvailableFrom</t>
+  </si>
+  <si>
+    <t>HirePrice</t>
+  </si>
+  <si>
+    <t>HireManagermentFee</t>
+  </si>
+  <si>
+    <t>HireTotalAmount</t>
+  </si>
+  <si>
+    <t>StreetName</t>
+  </si>
+  <si>
+    <t>DistrictID</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>[Column]</t>
   </si>
   <si>
+    <t>[Row]</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
-    <t>[Row]</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>AreaPerFloor</t>
-  </si>
-  <si>
-    <t>AvailableArea</t>
-  </si>
-  <si>
-    <t>HirePrice</t>
-  </si>
-  <si>
-    <t>StreetName</t>
-  </si>
-  <si>
-    <t>DistrictID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>HireManagermentFee</t>
-  </si>
-  <si>
-    <t>HireTotalAmount</t>
-  </si>
-  <si>
-    <t>RowIndex</t>
-  </si>
-  <si>
-    <t>AvailableFrom</t>
-  </si>
-  <si>
     <t>{{ReportCode}}</t>
   </si>
   <si>
@@ -264,21 +271,20 @@
     <t>{{ReportDate}}</t>
   </si>
   <si>
-    <t>Structure</t>
+    <t>{{ReportReceiver}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,13 +327,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -387,6 +386,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -473,40 +479,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -663,13 +635,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
   </fonts>
-  <fills count="31">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,12 +787,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1039,214 +1000,215 @@
   <cellStyleXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1270,29 +1232,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1327,9 +1303,9 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1344,6 +1320,7 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1376,60 +1353,62 @@
     <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="30" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="51" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1450,55 +1429,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="204">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -1708,14 +1638,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1812,7 +1734,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1265463</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>96610</xdr:rowOff>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1829,7 +1751,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="308883" y="95250"/>
+          <a:off x="394608" y="95250"/>
           <a:ext cx="1251855" cy="763360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2344,797 +2266,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M44"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:XFD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="16" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="67" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="18" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="16372" width="9.140625" hidden="1"/>
+    <col min="16373" max="16373" width="4.140625" hidden="1"/>
+    <col min="16374" max="16374" width="3.7109375" hidden="1"/>
+    <col min="16375" max="16375" width="4" hidden="1"/>
+    <col min="16376" max="16376" width="4.28515625" hidden="1"/>
+    <col min="16377" max="16377" width="3.5703125" hidden="1"/>
+    <col min="16378" max="16378" width="2.7109375" hidden="1"/>
+    <col min="16379" max="16379" width="3.5703125" hidden="1"/>
+    <col min="16380" max="16380" width="4.7109375" hidden="1"/>
+    <col min="16381" max="16381" width="5.5703125" hidden="1"/>
+    <col min="16382" max="16382" width="5.7109375" hidden="1"/>
+    <col min="16383" max="16384" width="13.5703125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
+    <row r="1" spans="1:13" ht="9.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="M1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="90" t="s">
         <v>39</v>
       </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>53</v>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75">
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="1:13" ht="1.5" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="51"/>
+    <row r="8" spans="1:13" ht="2.25" customHeight="1">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75">
-      <c r="A9" s="89" t="s">
+    <row r="9" spans="1:13" ht="15" customHeight="1">
+      <c r="A9" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
     </row>
-    <row r="10" spans="1:13" ht="20.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A11" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="92" t="s">
+    <row r="12" spans="1:13" s="21" customFormat="1" ht="15">
+      <c r="A12" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="94" t="s">
+      <c r="G12" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="92" t="s">
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="84" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="76.5">
-      <c r="A13" s="92"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="19" t="s">
+    <row r="13" spans="1:13" s="21" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93"/>
+      <c r="I13" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
     </row>
-    <row r="14" spans="1:13" ht="38.25">
-      <c r="A14" s="76" t="s">
+    <row r="14" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="74" t="s">
-        <v>48</v>
-      </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A15" s="20">
-        <v>1</v>
-      </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="21"/>
+    <row r="15" spans="1:13" s="30" customFormat="1" ht="42" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="26"/>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="15"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+    <row r="16" spans="1:13" s="30" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A16" s="24">
+        <v>5</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="27">
+        <v>35</v>
+      </c>
+      <c r="E16" s="27">
+        <v>8</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="27" t="e">
+        <f>IF($C$9='[1]SP TƯ VẤN KHÁCH HÀNG'!A377,'[1]SP TƯ VẤN KHÁCH HÀNG'!L377,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="26" t="e">
+        <f>IF($C$9='[1]SP TƯ VẤN KHÁCH HÀNG'!A377,'[1]SP TƯ VẤN KHÁCH HÀNG'!AE377,"")</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="32"/>
+    <row r="17" spans="1:13" ht="16.5">
+      <c r="A17" s="17"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="31"/>
       <c r="L17" s="32"/>
+      <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+    <row r="18" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="52"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="41"/>
+    <row r="20" spans="1:13" ht="18" customHeight="1">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="52"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
-      <c r="A21" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
+    <row r="21" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A21" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="52"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="41"/>
+    <row r="22" spans="1:13" ht="15.75">
+      <c r="A22" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="52"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="41"/>
+    <row r="23" spans="1:13" ht="21.75" customHeight="1">
+      <c r="A23" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="52"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="1"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
+    <row r="24" spans="1:13" ht="15.75">
+      <c r="A24" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="52"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75">
-      <c r="A25" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="70"/>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="66"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
+    <row r="26" spans="1:13" ht="15.75">
+      <c r="A26" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="73"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
+    <row r="28" spans="1:13" ht="15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
     </row>
-    <row r="28" spans="1:12" ht="18.75">
-      <c r="A28" s="1"/>
-      <c r="B28" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-    </row>
-    <row r="29" spans="1:12" ht="18.75">
-      <c r="A29" s="1"/>
-      <c r="B29" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75">
-      <c r="A30" s="1"/>
-      <c r="B30" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="61"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75">
-      <c r="A31" s="1"/>
-      <c r="B31" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-    </row>
-    <row r="32" spans="1:12" ht="18.75">
-      <c r="A32" s="1"/>
-      <c r="B32" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="62"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75">
-      <c r="A33" s="1"/>
-      <c r="B33" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="62"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75">
-      <c r="A34" s="1"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75">
-      <c r="A35" s="1"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="62"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75">
-      <c r="A36" s="1"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="16"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-    </row>
+    <row r="29" spans="1:13" ht="15" hidden="1" customHeight="1"/>
+    <row r="30" spans="1:13" ht="0" hidden="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B37:L44"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="C10:G10"/>
+  <autoFilter ref="B13:L16">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="#REF!"/>
+        <filter val="1 Hầm + 12  Tầng"/>
+        <filter val="1 Hầm + 14  Tầng"/>
+        <filter val="10 Tầng + 1 Hầm"/>
+        <filter val="2 Hầm + 7 Tầng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="20">
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.19" right="0.13" top="0.24" bottom="0.33" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Service.Data/_Template/Excel/Template_BaoGiaCoBan.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaCoBan.xlsx
@@ -157,56 +157,7 @@
     <t>chothuevanphonghcm.com</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">             Tel : (+84 8) 6790 847 I</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Call: 0938.59.92.93</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">             Mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> jenny.kimquang@gmail.com</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">       Mọi chi tiết xin liên hệ:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">             Lê Thuỳ Trâm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Trưởng Phòng Kinh Doanh)</t>
-    </r>
   </si>
   <si>
     <t>Giá Tổng
@@ -272,6 +223,15 @@
   </si>
   <si>
     <t>{{ReportReceiver}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Mail: {{Email}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     {{FullName}} ({{Position}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Tel :{{TelePhone}} I Call:{{CellPhone}}</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1163,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,6 +1347,24 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1411,23 +1389,8 @@
     <xf numFmtId="165" fontId="14" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="204">
@@ -2269,10 +2232,10 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:XFD30"/>
+  <dimension ref="A1:XFB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -2318,20 +2281,20 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="6"/>
       <c r="J2" s="4"/>
       <c r="K2" s="7"/>
@@ -2340,13 +2303,13 @@
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
+      <c r="C3" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="8"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
@@ -2354,19 +2317,19 @@
         <v>2</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="8"/>
       <c r="I4" s="6"/>
       <c r="J4" s="4"/>
@@ -2374,19 +2337,19 @@
         <v>4</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" s="4"/>
@@ -2394,7 +2357,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
@@ -2441,84 +2404,84 @@
       <c r="M8" s="59"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
     </row>
     <row r="12" spans="1:13" s="21" customFormat="1" ht="15">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="83" t="s">
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="84" t="s">
+      <c r="L12" s="90" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="21" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="22" t="s">
         <v>18</v>
       </c>
@@ -2526,51 +2489,51 @@
         <v>19</v>
       </c>
       <c r="I13" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+        <v>35</v>
+      </c>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
     </row>
     <row r="14" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="F14" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="G14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="H14" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="I14" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="J14" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="K14" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="L14" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="78" t="s">
+      <c r="M14" t="s">
         <v>50</v>
-      </c>
-      <c r="L14" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="30" customFormat="1" ht="42" customHeight="1">
@@ -2587,7 +2550,7 @@
       <c r="K15" s="27"/>
       <c r="L15" s="26"/>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="30" customFormat="1" ht="15.75" hidden="1" customHeight="1">
@@ -2706,7 +2669,7 @@
     </row>
     <row r="21" spans="1:13" ht="25.5" customHeight="1">
       <c r="A21" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="48"/>
@@ -2722,10 +2685,10 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" ht="15.75">
-      <c r="A22" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="54"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="C22" s="55"/>
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
@@ -2739,10 +2702,10 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A23" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="54"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="93" t="s">
+        <v>58</v>
+      </c>
       <c r="C23" s="56"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
@@ -2750,25 +2713,25 @@
       <c r="G23" s="49"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
       <c r="L23" s="48"/>
       <c r="M23" s="52"/>
     </row>
     <row r="24" spans="1:13" ht="15.75">
-      <c r="A24" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="57"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="57" t="s">
+        <v>56</v>
+      </c>
       <c r="C24" s="56"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="49"/>
       <c r="H24" s="48"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
       <c r="L24" s="48"/>
       <c r="M24" s="52"/>
     </row>
@@ -2833,13 +2796,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A11:L11"/>
@@ -2853,6 +2809,13 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J23:K23"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.13" top="0.24" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
